--- a/General_Results_and_Plotting/Late_Modeled_Updated620.xlsx
+++ b/General_Results_and_Plotting/Late_Modeled_Updated620.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\FBA Paper Revisions\Figure Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E0C5AE-855C-4C4D-853F-1E8D14C91BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E79D120-3BB1-4624-BDC1-90B01B1E9982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,7 +351,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:X1048576"/>
+      <selection activeCell="M1" sqref="M1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -397,34 +393,34 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>869.78733734781247</v>
+        <v>865</v>
       </c>
       <c r="C2">
-        <v>386.50218810563626</v>
+        <v>384</v>
       </c>
       <c r="D2">
-        <v>225.39813441564542</v>
+        <v>224</v>
       </c>
       <c r="E2">
-        <v>144.84610752274344</v>
+        <v>144</v>
       </c>
       <c r="F2">
-        <v>96.584875529096308</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>64.466153147999023</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>41.518167976029929</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>24.306316543238744</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>10.739037815175502</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>-0.17433674284727932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -432,34 +428,34 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>869.71044838228443</v>
+        <v>864</v>
       </c>
       <c r="C3">
-        <v>386.47547251211347</v>
+        <v>384</v>
       </c>
       <c r="D3">
-        <v>225.38868204425989</v>
+        <v>224</v>
       </c>
       <c r="E3">
-        <v>144.84821245239954</v>
+        <v>144</v>
       </c>
       <c r="F3">
-        <v>96.644662336235243</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>64.515374696409211</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>41.561286075299343</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>24.345935686071268</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>10.756086193969699</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>10.901123132175316</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -467,34 +463,34 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>869.60800308911871</v>
+        <v>864</v>
       </c>
       <c r="C4">
-        <v>386.44702875427714</v>
+        <v>384</v>
       </c>
       <c r="D4">
-        <v>225.38756211294313</v>
+        <v>224</v>
       </c>
       <c r="E4">
-        <v>144.90685666673897</v>
+        <v>144</v>
       </c>
       <c r="F4">
-        <v>96.710176839761203</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>64.572127617372018</v>
+        <v>64</v>
       </c>
       <c r="H4">
-        <v>41.610178504168502</v>
+        <v>41</v>
       </c>
       <c r="I4">
-        <v>24.388940943446123</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>24.621033103789443</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>24.743968341103852</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -502,34 +498,34 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>869.5269526802216</v>
+        <v>864</v>
       </c>
       <c r="C5">
-        <v>386.43116122581159</v>
+        <v>384</v>
       </c>
       <c r="D5">
-        <v>225.39484804595608</v>
+        <v>224</v>
       </c>
       <c r="E5">
-        <v>144.99281978678022</v>
+        <v>144</v>
       </c>
       <c r="F5">
-        <v>96.77851534222583</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>64.62916878283454</v>
+        <v>64</v>
       </c>
       <c r="H5">
-        <v>41.659070931893559</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>42.207425794109483</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>42.446646553303694</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>42.541417169035341</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -537,34 +533,34 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>869.43786965714798</v>
+        <v>864</v>
       </c>
       <c r="C6">
-        <v>386.43328111341413</v>
+        <v>384</v>
       </c>
       <c r="D6">
-        <v>225.46269554826077</v>
+        <v>224</v>
       </c>
       <c r="E6">
-        <v>145.07833801887301</v>
+        <v>144</v>
       </c>
       <c r="F6">
-        <v>96.846837690043145</v>
+        <v>96</v>
       </c>
       <c r="G6">
-        <v>64.686209968830909</v>
+        <v>64</v>
       </c>
       <c r="H6">
-        <v>65.325956285957616</v>
+        <v>65</v>
       </c>
       <c r="I6">
-        <v>65.965704623833105</v>
+        <v>66</v>
       </c>
       <c r="J6">
-        <v>66.21470157486003</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>66.27147354849032</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -572,34 +568,34 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>869.39411303462396</v>
+        <v>864</v>
       </c>
       <c r="C7">
-        <v>386.46686973654329</v>
+        <v>384</v>
       </c>
       <c r="D7">
-        <v>225.57679465613094</v>
+        <v>224</v>
       </c>
       <c r="E7">
-        <v>145.16385624990619</v>
+        <v>144</v>
       </c>
       <c r="F7">
-        <v>96.916722685643748</v>
+        <v>96</v>
       </c>
       <c r="G7">
-        <v>97.691906160390104</v>
+        <v>97</v>
       </c>
       <c r="H7">
-        <v>98.459596730690791</v>
+        <v>98</v>
       </c>
       <c r="I7">
-        <v>99.227294444560897</v>
+        <v>99</v>
       </c>
       <c r="J7">
-        <v>99.491885074332558</v>
+        <v>99</v>
       </c>
       <c r="K7">
-        <v>99.495392998587036</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -607,34 +603,34 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>869.40580378186883</v>
+        <v>864</v>
       </c>
       <c r="C8">
-        <v>386.5724095527807</v>
+        <v>384</v>
       </c>
       <c r="D8">
-        <v>225.69053837598344</v>
+        <v>224</v>
       </c>
       <c r="E8">
-        <v>145.24809341394641</v>
+        <v>144</v>
       </c>
       <c r="F8">
-        <v>146.23006842636229</v>
+        <v>145</v>
       </c>
       <c r="G8">
-        <v>147.19971708009493</v>
+        <v>146</v>
       </c>
       <c r="H8">
-        <v>148.15930566502578</v>
+        <v>147</v>
       </c>
       <c r="I8">
-        <v>149.11890596912451</v>
+        <v>149</v>
       </c>
       <c r="J8">
-        <v>149.32679629026418</v>
+        <v>149</v>
       </c>
       <c r="K8">
-        <v>149.32679630813402</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -642,34 +638,34 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>847.99999854621251</v>
+        <v>848</v>
       </c>
       <c r="C9">
-        <v>373.99999997947026</v>
+        <v>374</v>
       </c>
       <c r="D9">
-        <v>215.99999955643489</v>
+        <v>216</v>
       </c>
       <c r="E9">
-        <v>215.99999929067471</v>
+        <v>216</v>
       </c>
       <c r="F9">
-        <v>216.00000147400823</v>
+        <v>216</v>
       </c>
       <c r="G9">
-        <v>216.00000197455071</v>
+        <v>216</v>
       </c>
       <c r="H9">
-        <v>216.00001582494195</v>
+        <v>216</v>
       </c>
       <c r="I9">
-        <v>216.00000179679668</v>
+        <v>216</v>
       </c>
       <c r="J9">
-        <v>215.99999493731258</v>
+        <v>216</v>
       </c>
       <c r="K9">
-        <v>216.00000036579385</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -677,34 +673,34 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>532.00005873370287</v>
+        <v>532</v>
       </c>
       <c r="C10">
-        <v>216.00000395783917</v>
+        <v>216</v>
       </c>
       <c r="D10">
-        <v>215.99999791936946</v>
+        <v>216</v>
       </c>
       <c r="E10">
-        <v>216.00005033839741</v>
+        <v>216</v>
       </c>
       <c r="F10">
-        <v>216.00003192366034</v>
+        <v>216</v>
       </c>
       <c r="G10">
-        <v>216.0000004628487</v>
+        <v>216</v>
       </c>
       <c r="H10">
-        <v>215.99999624304124</v>
+        <v>216</v>
       </c>
       <c r="I10">
-        <v>215.9999993262482</v>
+        <v>216</v>
       </c>
       <c r="J10">
-        <v>216.00000806953742</v>
+        <v>216</v>
       </c>
       <c r="K10">
-        <v>216.00000779888853</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -712,34 +708,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>215.9999990571805</v>
+        <v>216</v>
       </c>
       <c r="C11">
-        <v>215.99997216835413</v>
+        <v>212</v>
       </c>
       <c r="D11">
-        <v>216.00000559686734</v>
+        <v>212</v>
       </c>
       <c r="E11">
-        <v>216.00001030538715</v>
+        <v>212</v>
       </c>
       <c r="F11">
-        <v>216.00001480305014</v>
+        <v>212</v>
       </c>
       <c r="G11">
-        <v>216.00001257192432</v>
+        <v>212</v>
       </c>
       <c r="H11">
-        <v>216.00001432686335</v>
+        <v>212</v>
       </c>
       <c r="I11">
-        <v>216.00000055098451</v>
+        <v>212</v>
       </c>
       <c r="J11">
-        <v>215.99998892339377</v>
+        <v>212</v>
       </c>
       <c r="K11">
-        <v>215.99999218672457</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
